--- a/results/charts/multi.xlsx
+++ b/results/charts/multi.xlsx
@@ -800,7 +800,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -810,11 +809,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="426560880"/>
-        <c:axId val="426557744"/>
+        <c:axId val="355525608"/>
+        <c:axId val="355529920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="426560880"/>
+        <c:axId val="355525608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426557744"/>
+        <c:crossAx val="355529920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426557744"/>
+        <c:axId val="355529920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -973,7 +972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426560880"/>
+        <c:crossAx val="355525608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1200"/>
-              <a:t>Bandwidths for multiple</a:t>
+              <a:t>Bandwidths under mixed</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1236,11 +1235,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="426562056"/>
-        <c:axId val="426566760"/>
+        <c:axId val="355525216"/>
+        <c:axId val="355530704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="426562056"/>
+        <c:axId val="355525216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426566760"/>
+        <c:crossAx val="355530704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1291,7 +1290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426566760"/>
+        <c:axId val="355530704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426562056"/>
+        <c:crossAx val="355525216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1451,6 +1450,2530 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Mean request time under</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>mixed concurrent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> test types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27675762512444563"/>
+          <c:y val="0.21666666666666662"/>
+          <c:w val="0.66002398407095664"/>
+          <c:h val="0.5805016039661709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>String search concurrent mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>897.94139999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache/PHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>String search concurrent mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8759.3309000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="354342584"/>
+        <c:axId val="354341408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354342584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354341408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354341408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354342584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27675762512444563"/>
+          <c:y val="0.21666666666666662"/>
+          <c:w val="0.66002398407095664"/>
+          <c:h val="0.5805016039661709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Database concurrent mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.2059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache/PHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Database concurrent mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.363300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="354351600"/>
+        <c:axId val="354341800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354351600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354341800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354341800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354351600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27675762512444563"/>
+          <c:y val="0.21666666666666662"/>
+          <c:w val="0.66002398407095664"/>
+          <c:h val="0.5805016039661709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static file concurrent mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2530.1346999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache/PHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static file concurrent mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1820.1108999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="357381648"/>
+        <c:axId val="357385960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="357381648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357385960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="357385960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357381648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Longest request under mixed</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>concurrent test types</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27675762512444563"/>
+          <c:y val="0.21666666666666662"/>
+          <c:w val="0.66002398407095664"/>
+          <c:h val="0.5805016039661709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>String search longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>971.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache/PHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>String search longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10973.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="357386352"/>
+        <c:axId val="355524824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="357386352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355524824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355524824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357386352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27675762512444563"/>
+          <c:y val="0.21666666666666662"/>
+          <c:w val="0.66002398407095664"/>
+          <c:h val="0.5805016039661709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Database longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4922.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache/PHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Database longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3050.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="355526392"/>
+        <c:axId val="355488152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="355526392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355488152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355488152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355526392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27675762512444563"/>
+          <c:y val="0.21666666666666662"/>
+          <c:w val="0.66002398407095664"/>
+          <c:h val="0.5805016039661709"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static file longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14854.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apache/PHP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static file longest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3130.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="293403144"/>
+        <c:axId val="354344544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="293403144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354344544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354344544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293403144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1571,6 +4094,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2075,6 +4838,3024 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2582,15 +8363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2612,15 +8393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2634,6 +8415,198 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2908,7 +8881,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
